--- a/Finance_Data.xlsx
+++ b/Finance_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\Desktop\Finance_Analysis_PowerBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8DDDB3-3E5E-4FE5-95DA-A0D3863D9BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816D00DE-107A-424B-9456-ED48B6A5C161}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-1740" windowWidth="25440" windowHeight="15390" firstSheet="12" activeTab="21" xr2:uid="{4F4609DF-C06C-45A0-92E5-13F036F77087}"/>
+    <workbookView xWindow="840" yWindow="2010" windowWidth="15375" windowHeight="8325" firstSheet="20" activeTab="24" xr2:uid="{4F4609DF-C06C-45A0-92E5-13F036F77087}"/>
   </bookViews>
   <sheets>
     <sheet name="Sept 18 - Dec 18" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,9 @@
     <sheet name="July 2020" sheetId="27" r:id="rId20"/>
     <sheet name="Aug 2020" sheetId="28" r:id="rId21"/>
     <sheet name="Sept 2020" sheetId="29" r:id="rId22"/>
+    <sheet name="Oct 2020" sheetId="30" r:id="rId23"/>
+    <sheet name="Nov 2020" sheetId="31" r:id="rId24"/>
+    <sheet name="Dec 2020" sheetId="32" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'Aug 2020'!$A$1:$F$19</definedName>
@@ -71,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="309">
   <si>
     <t>ITEM</t>
   </si>
@@ -911,6 +914,93 @@
   </si>
   <si>
     <t>Paper (all kinds)</t>
+  </si>
+  <si>
+    <t>Bought 'Among Us'</t>
+  </si>
+  <si>
+    <t>Bought ingredients to make wings for Lucas' friends</t>
+  </si>
+  <si>
+    <t>Mom visited today</t>
+  </si>
+  <si>
+    <t>Anytime Fitness</t>
+  </si>
+  <si>
+    <t>Got 7-day free trial; still had to pay for the keycard</t>
+  </si>
+  <si>
+    <t>Bought gym membership today; 30.99*2*1.05</t>
+  </si>
+  <si>
+    <t>Bought halls</t>
+  </si>
+  <si>
+    <t>Got COVID refund (260 for membership; 80 for locker; 25 for deposit)</t>
+  </si>
+  <si>
+    <t>Little Caesars</t>
+  </si>
+  <si>
+    <t>Paid my share for pizza/games night</t>
+  </si>
+  <si>
+    <t>Met with James today; he cut an inch of my beard on the left side!</t>
+  </si>
+  <si>
+    <t>Bought some ingredients for new meals today!</t>
+  </si>
+  <si>
+    <t>Bought some ingredients for chicken stir-fry</t>
+  </si>
+  <si>
+    <t>Mama came to visit today</t>
+  </si>
+  <si>
+    <t>Bought bus tickets</t>
+  </si>
+  <si>
+    <t>Bought light bulbs for room; 3 of them</t>
+  </si>
+  <si>
+    <t>Bought a new frying pan ("The Rock Fry Pan")</t>
+  </si>
+  <si>
+    <t>Bought Mike's Hard</t>
+  </si>
+  <si>
+    <t>Bought Halloween candy for kids</t>
+  </si>
+  <si>
+    <t>Had steak night with Lucas</t>
+  </si>
+  <si>
+    <t>Cineplex</t>
+  </si>
+  <si>
+    <t>Saw Tenet</t>
+  </si>
+  <si>
+    <t>Bought steaks for Lucas and I as payback for his steak night.</t>
+  </si>
+  <si>
+    <t>Bought a box of Clif Bars for homeless person</t>
+  </si>
+  <si>
+    <t>Bought hair ties</t>
+  </si>
+  <si>
+    <t>Had a huge headache today</t>
+  </si>
+  <si>
+    <t>Burger King</t>
+  </si>
+  <si>
+    <t>Had the last pizza night with John; he moved the next day.</t>
+  </si>
+  <si>
+    <t>Bought rotisserie chicken to make tacos</t>
   </si>
 </sst>
 </file>
@@ -934,7 +1024,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,6 +1034,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,13 +1056,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1283,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF8F1D1-2013-4798-B106-934EC7CFCCC7}">
   <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -11634,10 +11731,332 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA458AD-9CBD-4742-86E7-663EBAD772FF}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="67.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2">
+        <v>-4.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <f>-5.69*1.05</f>
+        <v>-5.9745000000000008</v>
+      </c>
+      <c r="F3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>-9.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>-20.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>-11.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>-23.43</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>-29.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>-14.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>-111.6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>-19.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>-83.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>-11.94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14">
+        <v>-89.48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15">
+        <v>-52.49</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16">
+        <v>-65.08</v>
+      </c>
+      <c r="F16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17">
+        <v>-6.3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18">
+        <v>382</v>
+      </c>
+      <c r="F18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>-15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6654B4F-3B4E-441E-A2AB-9EAD30C5A0D4}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11664,7 +12083,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -11673,26 +12092,29 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>-9.84</v>
+        <v>-23.97</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D3">
-        <v>-4.67</v>
+        <v>-44.68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44078</v>
+        <v>44109</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -11701,12 +12123,15 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>-20.16</v>
+        <v>-32.03</v>
+      </c>
+      <c r="F4" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44082</v>
+        <v>44110</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -11715,29 +12140,29 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>-11.23</v>
+        <v>-31.1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44081</v>
+        <v>44112</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>-89.48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>278</v>
+        <v>-32.159999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44084</v>
+        <v>44113</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -11746,13 +12171,12 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>-23.43</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>-18.920000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44088</v>
+        <v>44114</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -11761,7 +12185,1015 @@
         <v>6</v>
       </c>
       <c r="D8">
+        <v>-14.3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9">
+        <v>-35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>-31.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>-19.62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>-33.409999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14">
+        <v>-39.89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>-6.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16">
+        <v>-17.91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>-81.09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
         <v>-29.98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44129</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>-5.37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44133</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>-5.37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>-52.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22">
+        <v>-7.34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>-11.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CCD20D-8D44-4C80-B233-67C8E81BA542}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2">
+        <v>-21.09</v>
+      </c>
+      <c r="F2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>-8.99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>-5.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>-11.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44141</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>-5.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44142</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>-12.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>-47.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44143</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>-20.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>-5.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>-5.97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>-5.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>-20.309999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>-5.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>-5.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>-20.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>-5.37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>-20.96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>-13.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>-27.91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>-44.45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44160</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>-11.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44161</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>-34.94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44162</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>-9.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44164</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>-5.37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26">
+        <v>-6.29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>-20.02</v>
+      </c>
+      <c r="F27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>-21.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>-20.56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>-36.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633779AC-999A-4BE2-A2A1-4915F762E747}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>-11.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>-16.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>-10.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>-19.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44171</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>-17.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>-11.01</v>
+      </c>
+      <c r="F7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44174</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>-5.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>-9.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>-44.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44177</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>-11.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44174</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>-32.729999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>-26.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>-17.829999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44185</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>-11.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>-87.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>-4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44191</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>-17.309999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>-25.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44194</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>-17.309999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>-45.78</v>
       </c>
     </row>
   </sheetData>
